--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D124E77-3D98-420E-96D0-C4DDD4C8733E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1C2956-0251-4016-96F4-CE6D5944BD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -486,6 +486,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -495,50 +534,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -857,26 +857,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="11"/>
@@ -899,56 +899,56 @@
       <c r="W1" s="11"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="19"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="23"/>
       <c r="S2" s="24"/>
       <c r="T2" s="23"/>
       <c r="U2" s="24"/>
       <c r="V2" s="21"/>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="20"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="18"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="1"/>
       <c r="S3" s="2"/>
       <c r="T3" s="1"/>
       <c r="U3" s="2"/>
       <c r="V3" s="22"/>
-      <c r="W3" s="26"/>
+      <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2123,7 +2123,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -2566,6 +2566,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="J2:J3"/>
@@ -2582,11 +2587,6 @@
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22728"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1C2956-0251-4016-96F4-CE6D5944BD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886EDF89-8CDE-4F64-92CC-B9A8E6F0BB81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -486,6 +486,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,12 +510,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -525,19 +534,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -857,26 +857,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="11"/>
@@ -899,56 +899,56 @@
       <c r="W1" s="11"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="13" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="22"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="25"/>
       <c r="R3" s="1"/>
       <c r="S3" s="2"/>
       <c r="T3" s="1"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="14"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2185,7 +2185,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2566,11 +2566,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="J2:J3"/>
@@ -2587,6 +2582,11 @@
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886EDF89-8CDE-4F64-92CC-B9A8E6F0BB81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF298A5-6453-4DAD-93D4-46457B5D6581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -486,58 +486,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -857,26 +857,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="11"/>
@@ -899,56 +899,56 @@
       <c r="W1" s="11"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="18" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="25"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="22"/>
       <c r="R3" s="1"/>
       <c r="S3" s="2"/>
       <c r="T3" s="1"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="19"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1105,7 +1105,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2566,6 +2566,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="J2:J3"/>
@@ -2582,11 +2587,6 @@
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF298A5-6453-4DAD-93D4-46457B5D6581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8493DE-9574-4472-9FE6-8BBAC53B22DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,6 +486,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,12 +510,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -525,19 +534,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -858,25 +858,25 @@
   <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="11"/>
@@ -899,56 +899,56 @@
       <c r="W1" s="11"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="13" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="22"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="25"/>
       <c r="R3" s="1"/>
       <c r="S3" s="2"/>
       <c r="T3" s="1"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="14"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -985,7 +985,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1016,7 +1016,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1074,7 +1074,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1258,7 +1258,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="7"/>
@@ -1315,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -1343,7 +1343,9 @@
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7">
@@ -1408,7 +1410,9 @@
         <v>19</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
@@ -1493,7 +1497,9 @@
         <v>22</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6"/>
@@ -1705,7 +1711,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -1736,7 +1742,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1769,7 +1775,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -1824,7 +1830,9 @@
         <v>33</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6"/>
@@ -1882,7 +1890,9 @@
         <v>35</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
       <c r="D35" s="5"/>
       <c r="E35" s="7">
         <v>2</v>
@@ -1916,7 +1926,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -1946,7 +1956,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -2280,7 +2292,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -2339,7 +2351,9 @@
         <v>50</v>
       </c>
       <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
       <c r="D50" s="5"/>
       <c r="E50" s="7">
         <v>2</v>
@@ -2373,7 +2387,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -2402,7 +2416,7 @@
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="7"/>
@@ -2434,7 +2448,9 @@
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="7"/>
+      <c r="E53" s="7">
+        <v>1</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -2458,7 +2474,9 @@
       <c r="A54" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="5"/>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="7"/>
@@ -2566,11 +2584,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="J2:J3"/>
@@ -2587,6 +2600,11 @@
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880E3BD6-C489-4623-873E-AAC879220951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64531C01-0F3A-4412-B965-B2B9B06BCC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17010" yWindow="4680" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,9 +411,30 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -425,27 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -764,42 +764,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="9"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -864,7 +864,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64531C01-0F3A-4412-B965-B2B9B06BCC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1468B7-F96B-453D-9DEB-248862486C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1468B7-F96B-453D-9DEB-248862486C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D09E86-1B54-47F3-A1D1-0888C1090AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -851,7 +851,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -969,7 +969,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D09E86-1B54-47F3-A1D1-0888C1090AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEA21B-A877-4701-A715-5E8F17E477AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -765,7 +765,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEA21B-A877-4701-A715-5E8F17E477AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67AB8A3-4666-4D6F-8540-41AF3B8CAD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -831,7 +831,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -886,7 +886,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -969,7 +969,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1061,7 +1061,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1279,7 +1279,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1290,7 +1290,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1301,7 +1301,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1366,7 +1366,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67AB8A3-4666-4D6F-8540-41AF3B8CAD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDDC391-A29F-425C-B057-E8FC3AD03C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -908,7 +908,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDDC391-A29F-425C-B057-E8FC3AD03C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50099A89-C46E-403C-A743-0F7F64D1ACD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
   <si>
     <t>姓名</t>
   </si>
@@ -765,7 +765,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22820"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50099A89-C46E-403C-A743-0F7F64D1ACD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E67E80-825E-463E-B0CE-80DAA4B33A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="15540" yWindow="2055" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>姓名</t>
   </si>
@@ -209,6 +209,10 @@
   </si>
   <si>
     <t>旷课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李鸿鑫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -762,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -806,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
@@ -848,7 +852,9 @@
         <v>8</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4">
         <v>19</v>
@@ -926,9 +932,11 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
       <c r="C15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
@@ -976,7 +984,9 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
@@ -1017,7 +1027,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -1059,7 +1069,9 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
       <c r="E26" s="4">
         <v>5</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -1203,7 +1215,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="4">
@@ -1228,7 +1240,9 @@
         <v>1</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4">
+        <v>-1</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -1238,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -1264,7 +1278,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4">
@@ -1276,7 +1290,9 @@
         <v>44</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4">
         <v>5</v>
@@ -1349,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -1366,7 +1382,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1398,7 +1414,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
@@ -1432,6 +1448,17 @@
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22820"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22823"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E67E80-825E-463E-B0CE-80DAA4B33A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9D81E8-36DA-4519-A965-93F7FA744CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="2055" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="8970" yWindow="2685" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>姓名</t>
   </si>
@@ -213,6 +213,10 @@
   </si>
   <si>
     <t>李鸿鑫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴盛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -270,14 +274,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="40"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -286,6 +282,13 @@
       <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="40"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -403,13 +406,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,14 +442,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -766,64 +769,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="4">
+      <c r="E5" s="19">
         <v>6</v>
       </c>
     </row>
@@ -834,8 +839,8 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="4">
-        <v>8</v>
+      <c r="E6" s="19">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -845,18 +850,20 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="4">
+      <c r="E8" s="19">
         <v>19</v>
       </c>
     </row>
@@ -866,11 +873,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="4">
-        <v>5</v>
+      <c r="E9" s="19">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -882,16 +889,18 @@
         <v>1</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="4">
+      <c r="E11" s="19">
         <v>8</v>
       </c>
     </row>
@@ -902,7 +911,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="4">
+      <c r="E12" s="19">
         <v>1</v>
       </c>
     </row>
@@ -911,9 +920,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="4">
+      <c r="E13" s="19">
         <v>6</v>
       </c>
     </row>
@@ -924,7 +935,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="4">
+      <c r="E14" s="19">
         <v>12</v>
       </c>
     </row>
@@ -936,10 +947,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -952,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -963,7 +974,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="4">
+      <c r="E17" s="19">
         <v>3</v>
       </c>
     </row>
@@ -976,8 +987,8 @@
         <v>2</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="4">
-        <v>5</v>
+      <c r="E18" s="19">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -993,7 +1004,7 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1004,8 +1015,8 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="4">
-        <v>3</v>
+      <c r="E20" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1019,18 +1030,20 @@
         <v>1</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -1039,7 +1052,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="4">
+      <c r="E23" s="19">
         <v>2</v>
       </c>
     </row>
@@ -1050,7 +1063,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="4">
+      <c r="E24" s="19">
         <v>6</v>
       </c>
     </row>
@@ -1061,7 +1074,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1072,7 +1085,7 @@
       <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="19">
         <v>5</v>
       </c>
     </row>
@@ -1085,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="4">
+      <c r="E27" s="19">
         <v>2</v>
       </c>
     </row>
@@ -1096,8 +1109,8 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="4">
-        <v>3</v>
+      <c r="E28" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1105,9 +1118,11 @@
         <v>29</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="4">
+      <c r="E29" s="19">
         <v>4</v>
       </c>
     </row>
@@ -1118,7 +1133,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="4">
+      <c r="E30" s="19">
         <v>5</v>
       </c>
     </row>
@@ -1126,12 +1141,14 @@
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
       <c r="C31" s="2">
         <v>3</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="4">
+      <c r="E31" s="19">
         <v>3</v>
       </c>
     </row>
@@ -1144,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -1155,7 +1172,7 @@
       <c r="D33" s="3">
         <v>1</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -1164,7 +1181,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="4">
+      <c r="E34" s="19">
         <v>7</v>
       </c>
     </row>
@@ -1177,7 +1194,7 @@
       <c r="D35" s="3">
         <v>1</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="19">
         <v>3</v>
       </c>
     </row>
@@ -1189,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="4">
+      <c r="E36" s="19">
         <v>3</v>
       </c>
     </row>
@@ -1205,7 +1222,7 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="4">
+      <c r="E37" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1215,10 +1232,10 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="4">
+      <c r="E38" s="19">
         <v>3</v>
       </c>
     </row>
@@ -1229,7 +1246,7 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -1240,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="4">
+      <c r="E40" s="19">
         <v>-1</v>
       </c>
     </row>
@@ -1255,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1268,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="4">
+      <c r="E42" s="19">
         <v>4</v>
       </c>
     </row>
@@ -1276,12 +1293,14 @@
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
       <c r="C43" s="2">
         <v>2</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="4">
+      <c r="E43" s="19">
         <v>3</v>
       </c>
     </row>
@@ -1294,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="4">
+      <c r="E44" s="19">
         <v>5</v>
       </c>
     </row>
@@ -1305,7 +1324,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="4">
+      <c r="E45" s="19">
         <v>9</v>
       </c>
     </row>
@@ -1314,9 +1333,11 @@
         <v>46</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="4">
+      <c r="E46" s="19">
         <v>12</v>
       </c>
     </row>
@@ -1326,10 +1347,10 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="4">
+      <c r="E47" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1342,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="3"/>
-      <c r="E48" s="4">
+      <c r="E48" s="19">
         <v>8</v>
       </c>
     </row>
@@ -1353,7 +1374,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="4">
+      <c r="E49" s="19">
         <v>6</v>
       </c>
     </row>
@@ -1370,7 +1391,7 @@
       <c r="D50" s="3">
         <v>1</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="19">
         <v>2</v>
       </c>
     </row>
@@ -1381,12 +1402,12 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="4">
-        <v>14</v>
+      <c r="E51" s="19">
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="2">
@@ -1396,61 +1417,65 @@
         <v>2</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="4">
+      <c r="E53" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="4"/>
+      <c r="E55" s="19"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="19"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
+      <c r="E57" s="19"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="2"/>
@@ -1458,7 +1483,18 @@
       <c r="D58" s="3">
         <v>1</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="19"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9D81E8-36DA-4519-A965-93F7FA744CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED08722-A4DA-4669-AC39-21BF2A5196F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8970" yWindow="2685" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="1185" yWindow="1875" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,6 +289,7 @@
       <sz val="12"/>
       <color indexed="40"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -415,6 +416,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -450,9 +454,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,42 +772,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -817,7 +818,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="19"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -828,7 +829,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="19">
+      <c r="E5" s="7">
         <v>6</v>
       </c>
     </row>
@@ -839,7 +840,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="19">
+      <c r="E6" s="7">
         <v>9</v>
       </c>
     </row>
@@ -850,7 +851,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="19"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -863,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="19">
+      <c r="E8" s="7">
         <v>19</v>
       </c>
     </row>
@@ -876,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="19">
+      <c r="E9" s="7">
         <v>6</v>
       </c>
     </row>
@@ -889,18 +890,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="19">
+      <c r="E11" s="7">
         <v>8</v>
       </c>
     </row>
@@ -911,7 +910,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="19">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
     </row>
@@ -924,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="19">
+      <c r="E13" s="7">
         <v>6</v>
       </c>
     </row>
@@ -935,7 +934,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="19">
+      <c r="E14" s="7">
         <v>12</v>
       </c>
     </row>
@@ -950,7 +949,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -963,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -974,7 +973,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="19">
+      <c r="E17" s="7">
         <v>3</v>
       </c>
     </row>
@@ -987,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="19">
+      <c r="E18" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1004,7 +1003,7 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1015,7 +1014,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="19">
+      <c r="E20" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1030,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="19"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1043,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="19"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -1052,7 +1051,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="19">
+      <c r="E23" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1063,7 +1062,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="19">
+      <c r="E24" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1074,7 +1073,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="19"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1085,7 +1084,7 @@
       <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1098,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="19">
+      <c r="E27" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1109,7 +1108,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="19">
+      <c r="E28" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1122,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="19">
+      <c r="E29" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1133,7 +1132,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="19">
+      <c r="E30" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1141,14 +1140,12 @@
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2">
         <v>3</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="19">
+      <c r="E31" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1161,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="19"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -1172,7 +1169,7 @@
       <c r="D33" s="3">
         <v>1</v>
       </c>
-      <c r="E33" s="19"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -1181,7 +1178,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="19">
+      <c r="E34" s="7">
         <v>7</v>
       </c>
     </row>
@@ -1194,7 +1191,7 @@
       <c r="D35" s="3">
         <v>1</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1209,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="19">
+      <c r="E36" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1222,7 +1219,7 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="19">
+      <c r="E37" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1235,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="19">
+      <c r="E38" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1246,7 +1243,7 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="19"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -1257,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="19">
+      <c r="E40" s="7">
         <v>-1</v>
       </c>
     </row>
@@ -1272,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="19"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1285,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="19">
+      <c r="E42" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1300,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="19">
+      <c r="E43" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1313,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="19">
+      <c r="E44" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1324,7 +1321,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="19">
+      <c r="E45" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1333,11 +1330,9 @@
         <v>46</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
+      <c r="C46" s="2"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="19">
+      <c r="E46" s="7">
         <v>12</v>
       </c>
     </row>
@@ -1350,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="19">
+      <c r="E47" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1363,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="3"/>
-      <c r="E48" s="19">
+      <c r="E48" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1374,7 +1369,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="19">
+      <c r="E49" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1391,7 +1386,7 @@
       <c r="D50" s="3">
         <v>1</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1402,7 +1397,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="19">
+      <c r="E51" s="7">
         <v>15</v>
       </c>
     </row>
@@ -1417,18 +1412,18 @@
         <v>2</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="19"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="19">
+      <c r="E53" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1441,7 +1436,7 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="19"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -1452,7 +1447,7 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="19"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
@@ -1463,7 +1458,7 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="19"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
@@ -1472,7 +1467,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="19"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
@@ -1483,7 +1478,7 @@
       <c r="D58" s="3">
         <v>1</v>
       </c>
-      <c r="E58" s="19"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
@@ -1494,7 +1489,7 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="19"/>
+      <c r="E59" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED08722-A4DA-4669-AC39-21BF2A5196F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064A9777-B786-40C0-A91F-3612795C0EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="1875" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="4725" yWindow="1260" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -857,9 +857,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>1</v>
       </c>
@@ -919,9 +917,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="7">
         <v>6</v>
@@ -946,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="7"/>
@@ -1202,9 +1198,7 @@
       <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="2">
-        <v>2</v>
-      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="7">
         <v>3</v>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064A9777-B786-40C0-A91F-3612795C0EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085A6115-6D88-486E-8E6A-A49C3B92DBD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="1260" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="1365" yWindow="1755" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,7 +872,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="7">
@@ -1371,9 +1371,7 @@
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2">
         <v>2</v>
       </c>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085A6115-6D88-486E-8E6A-A49C3B92DBD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B130645-45FB-4EE6-BB52-CA351758DA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1755" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="1710" yWindow="2100" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B130645-45FB-4EE6-BB52-CA351758DA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9488180-4D5F-4BF5-8514-69DF9536A515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="2100" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="7">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9488180-4D5F-4BF5-8514-69DF9536A515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE0CCC3-38CD-422C-B9B4-783269D19D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="0" yWindow="1695" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -773,7 +773,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1284,11 +1284,9 @@
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="7">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE0CCC3-38CD-422C-B9B4-783269D19D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570380E1-3B02-4B41-AA17-4870FEFEACF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1695" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="480" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
@@ -825,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -841,7 +841,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -863,7 +863,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -876,7 +876,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -898,7 +898,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -931,7 +931,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -952,7 +952,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
@@ -970,7 +970,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -983,7 +983,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1048,7 +1048,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1129,7 +1129,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1433,7 +1433,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -1447,7 +1447,9 @@
         <v>1</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1475,7 +1477,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570380E1-3B02-4B41-AA17-4870FEFEACF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C492E3B-29B7-49B8-8298-DBDBEB18F143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,13 +772,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection sqref="A1:E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -795,21 +795,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="18"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="19"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -833,7 +833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,10 +841,10 @@
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,7 +853,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -866,7 +866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -879,7 +879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -898,10 +898,10 @@
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -923,7 +923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -931,10 +931,10 @@
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -970,10 +970,10 @@
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -983,10 +983,10 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1000,10 +1000,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1011,10 +1011,10 @@
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1027,7 +1027,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1105,10 +1105,10 @@
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1118,10 +1118,10 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1188,10 +1188,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1260,12 +1260,12 @@
         <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1290,10 +1290,10 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1303,10 +1303,10 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1314,10 +1314,10 @@
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1325,10 +1325,10 @@
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1351,10 +1351,10 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1362,10 +1362,10 @@
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1388,10 +1388,10 @@
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
@@ -1428,18 +1428,18 @@
       <c r="D54" s="3"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
@@ -1461,18 +1461,20 @@
       <c r="D57" s="3"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3">
         <v>1</v>
       </c>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>60</v>
       </c>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C492E3B-29B7-49B8-8298-DBDBEB18F143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791F9E48-BC17-4AB2-9EA0-948B1FED4230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -772,13 +772,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection sqref="A1:E59"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -795,21 +795,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="18"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="19"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,10 +830,10 @@
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -844,7 +844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,7 +853,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -866,7 +866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -879,7 +879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -901,7 +901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -923,7 +923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -934,7 +934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -973,7 +973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -986,7 +986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1027,7 +1027,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1265,7 +1265,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
@@ -1428,7 +1428,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>55</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
@@ -1461,7 +1461,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>59</v>
       </c>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>60</v>
       </c>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791F9E48-BC17-4AB2-9EA0-948B1FED4230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6D3296-3825-4BEB-BCB0-8F8EBE63E3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="9570" yWindow="3735" windowWidth="21600" windowHeight="11775" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -841,7 +841,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1214,7 +1214,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="7">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="7">
@@ -1435,7 +1435,9 @@
       <c r="B55" s="2">
         <v>4</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="7"/>
     </row>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6D3296-3825-4BEB-BCB0-8F8EBE63E3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8674C00F-D666-464D-A291-2D86CEE4AEF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="3735" windowWidth="21600" windowHeight="11775" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="3690" yWindow="2040" windowWidth="21600" windowHeight="11775" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -773,7 +773,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -841,7 +841,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -876,7 +876,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -896,7 +896,9 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
       <c r="E11" s="7">
         <v>12</v>
       </c>
@@ -970,7 +972,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -983,7 +985,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1011,7 +1013,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1102,10 +1104,12 @@
         <v>28</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1118,7 +1122,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1129,7 +1133,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1188,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1211,7 +1215,9 @@
       <c r="B37" s="2">
         <v>2</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="7">
         <v>2</v>
@@ -1277,7 +1283,7 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1290,7 +1296,7 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1299,7 +1305,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="7">
@@ -1314,7 +1320,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1325,7 +1331,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1334,7 +1340,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="7">
@@ -1351,7 +1357,7 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1362,7 +1368,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1388,7 +1394,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1408,7 +1414,9 @@
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
       <c r="C53" s="2">
         <v>2</v>
       </c>
@@ -1436,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="7"/>
@@ -1448,7 +1456,9 @@
       <c r="B56" s="2">
         <v>1</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
       <c r="D56" s="3">
         <v>1</v>
       </c>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8674C00F-D666-464D-A291-2D86CEE4AEF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F035B834-8BA2-438F-8D5D-B38070C704A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2040" windowWidth="21600" windowHeight="11775" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F035B834-8BA2-438F-8D5D-B38070C704A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE9C5A-366B-4F7A-9A75-00EFEB455229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -933,7 +933,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE9C5A-366B-4F7A-9A75-00EFEB455229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B753E3-3728-4A56-8D75-C4FCCAA47CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B753E3-3728-4A56-8D75-C4FCCAA47CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BB05DD-72E9-402D-ADA2-401947001F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1414,9 +1414,7 @@
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="2">
         <v>2</v>
       </c>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BB05DD-72E9-402D-ADA2-401947001F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0761370C-A3AA-476B-9A7B-DBEA63D1FDDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0761370C-A3AA-476B-9A7B-DBEA63D1FDDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30000BC4-B9D0-464A-87B2-903212B8FFC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="1605" yWindow="3000" windowWidth="21600" windowHeight="11775" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -857,7 +857,9 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
@@ -922,7 +924,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1021,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1037,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7"/>
@@ -1069,7 +1071,9 @@
         <v>25</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7"/>
     </row>
@@ -1176,7 +1180,9 @@
         <v>34</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="7">
         <v>7</v>
@@ -1251,7 +1257,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="7">
@@ -1266,9 +1272,11 @@
         <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>3</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1279,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="7">
@@ -1320,7 +1328,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1331,7 +1339,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1394,7 +1402,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1408,7 +1416,9 @@
         <v>2</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="7"/>
+      <c r="E52" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
@@ -1416,7 +1426,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="7">
@@ -1442,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="7"/>
@@ -1455,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
@@ -1478,7 +1488,9 @@
       <c r="B58" s="2">
         <v>1</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
       <c r="D58" s="3">
         <v>1</v>
       </c>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30000BC4-B9D0-464A-87B2-903212B8FFC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73D144F-A0AB-47E3-BA52-CA4E3757F1E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="3000" windowWidth="21600" windowHeight="11775" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="3330" yWindow="2205" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -987,7 +987,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,7 +1169,9 @@
         <v>33</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
       <c r="D33" s="3">
         <v>1</v>
       </c>
@@ -1222,11 +1224,11 @@
         <v>2</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1257,7 +1259,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="7">
@@ -1486,7 +1488,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23006"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73D144F-A0AB-47E3-BA52-CA4E3757F1E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EF9A5D-7624-41C5-ADF1-753D969B6DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="2205" windowWidth="21600" windowHeight="11835" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -773,7 +773,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="7">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -987,7 +987,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1015,7 +1015,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1330,7 +1330,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="7">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1378,7 +1378,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EF9A5D-7624-41C5-ADF1-753D969B6DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E11F20-5B0C-4C10-A2B4-B98917CC67C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -987,7 +987,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1330,7 +1330,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1404,7 +1404,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">

--- a/简易数据.xlsx
+++ b/简易数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23020"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Class\Ms.Li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E11F20-5B0C-4C10-A2B4-B98917CC67C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43351BE-DDD9-4BD9-9768-B9CD10E9A916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{168A4FE0-82A4-43AD-A922-E9BB867F9181}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
     <t>早退</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -217,6 +214,10 @@
   </si>
   <si>
     <t>吴盛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -772,27 +773,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A839B5C5-B0F3-46A3-B106-A1C89150F47E}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -811,7 +812,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
@@ -822,7 +823,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -835,18 +836,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -855,7 +856,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -870,7 +871,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
@@ -883,7 +884,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
@@ -894,7 +895,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -907,7 +908,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -918,7 +919,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -929,18 +930,18 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -953,7 +954,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -966,7 +967,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -979,7 +980,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
@@ -987,12 +988,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -1009,7 +1010,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1020,7 +1021,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
@@ -1033,7 +1034,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1046,7 +1047,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1057,18 +1058,18 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2">
@@ -1079,7 +1080,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1092,7 +1093,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2">
@@ -1105,7 +1106,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
@@ -1118,7 +1119,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2">
@@ -1131,7 +1132,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1142,7 +1143,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2">
@@ -1155,7 +1156,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
@@ -1166,7 +1167,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2">
@@ -1179,7 +1180,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2">
@@ -1192,7 +1193,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1205,7 +1206,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -1218,7 +1219,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
@@ -1233,7 +1234,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2">
@@ -1246,16 +1247,18 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="7"/>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2">
@@ -1268,7 +1271,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -1283,7 +1286,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -1298,7 +1301,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
@@ -1311,7 +1314,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2">
@@ -1324,18 +1327,18 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1346,7 +1349,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2">
@@ -1359,7 +1362,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2">
@@ -1372,7 +1375,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1383,7 +1386,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2">
@@ -1393,12 +1396,12 @@
         <v>1</v>
       </c>
       <c r="E50" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1409,7 +1412,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>2</v>
@@ -1424,7 +1427,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2">
@@ -1437,7 +1440,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>4</v>
@@ -1448,7 +1451,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>4</v>
@@ -1461,7 +1464,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -1476,7 +1479,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1485,7 +1488,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
@@ -1500,7 +1503,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
